--- a/Food Quizzes Design.xlsx
+++ b/Food Quizzes Design.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22320" windowHeight="9800" firstSheet="8" activeTab="10"/>
+    <workbookView windowWidth="25600" windowHeight="9800" firstSheet="5" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="User Home" sheetId="2" r:id="rId1"/>
@@ -14,19 +14,17 @@
     <sheet name="User Signup" sheetId="12" r:id="rId5"/>
     <sheet name="User Page" sheetId="6" r:id="rId6"/>
     <sheet name="Admin Login" sheetId="1" r:id="rId7"/>
-    <sheet name="Admin Page" sheetId="13" r:id="rId8"/>
-    <sheet name="Manage Questions Set" sheetId="9" r:id="rId9"/>
-    <sheet name="Manage Quizzes" sheetId="14" r:id="rId10"/>
-    <sheet name="Manage Users" sheetId="10" r:id="rId11"/>
-    <sheet name="Upload Questions Set" sheetId="11" r:id="rId12"/>
-    <sheet name="Upload Questions Set 2" sheetId="15" r:id="rId13"/>
+    <sheet name="Admin Page Manage Quizzes" sheetId="14" r:id="rId8"/>
+    <sheet name="Manage Users" sheetId="10" r:id="rId9"/>
+    <sheet name="Upload Questions Set" sheetId="11" r:id="rId10"/>
+    <sheet name="Upload Questions Set 2" sheetId="15" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81">
   <si>
     <t>Log In</t>
   </si>
@@ -118,9 +116,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">No Account ? </t>
     </r>
@@ -131,7 +128,6 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>Sign Up</t>
     </r>
@@ -194,34 +190,28 @@
     <t>Admin ID:</t>
   </si>
   <si>
+    <t>Search:</t>
+  </si>
+  <si>
     <t>Manage Quizzes</t>
   </si>
   <si>
-    <t>Approved Quizzes</t>
+    <t>Quiz Title</t>
   </si>
   <si>
     <t>Status</t>
   </si>
   <si>
-    <t>Upload Quizzes</t>
+    <t>Manage Users</t>
+  </si>
+  <si>
+    <t>General Japanese Food Quiz 1</t>
   </si>
   <si>
     <t>Approved</t>
   </si>
   <si>
     <t>View</t>
-  </si>
-  <si>
-    <t>Manage Users</t>
-  </si>
-  <si>
-    <t>Search:</t>
-  </si>
-  <si>
-    <t>Quiz Title</t>
-  </si>
-  <si>
-    <t>General Japanese Food Quiz 1</t>
   </si>
   <si>
     <t>Upload a Quiz</t>
@@ -304,12 +294,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -347,8 +337,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -361,22 +352,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -387,6 +365,44 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -405,17 +421,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -423,7 +437,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -437,58 +481,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="34">
@@ -506,7 +509,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -518,19 +647,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -542,103 +671,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -650,43 +683,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -703,15 +706,6 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="thin">
         <color auto="1"/>
@@ -740,15 +734,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -756,6 +741,24 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -845,11 +848,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -863,26 +872,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -904,26 +904,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -942,157 +925,177 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1102,166 +1105,109 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1273,46 +1219,40 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1327,54 +1267,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
     <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1641,7 +1581,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:L31"/>
   <sheetViews>
@@ -1649,7 +1589,7 @@
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1"/>
@@ -1712,20 +1652,20 @@
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1"/>
@@ -1757,328 +1697,328 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1"/>
-      <c r="B8" s="75" t="s">
+      <c r="B8" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="75"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="75"/>
-      <c r="G8" s="75"/>
-      <c r="H8" s="75"/>
-      <c r="I8" s="75"/>
-      <c r="J8" s="75"/>
-      <c r="K8" s="75"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1"/>
-      <c r="B9" s="75"/>
-      <c r="C9" s="75"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="75"/>
-      <c r="G9" s="75"/>
-      <c r="H9" s="75"/>
-      <c r="I9" s="75"/>
-      <c r="J9" s="75"/>
-      <c r="K9" s="75"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1"/>
-      <c r="B10" s="75"/>
-      <c r="C10" s="75"/>
-      <c r="D10" s="75"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="75"/>
-      <c r="H10" s="75"/>
-      <c r="I10" s="75"/>
-      <c r="J10" s="75"/>
-      <c r="K10" s="75"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54"/>
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1"/>
-      <c r="B11" s="75"/>
-      <c r="C11" s="75"/>
-      <c r="D11" s="75"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="75"/>
-      <c r="G11" s="75"/>
-      <c r="H11" s="75"/>
-      <c r="I11" s="75"/>
-      <c r="J11" s="75"/>
-      <c r="K11" s="75"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
       <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1"/>
-      <c r="B12" s="75"/>
-      <c r="C12" s="75"/>
-      <c r="D12" s="75"/>
-      <c r="E12" s="75"/>
-      <c r="F12" s="75"/>
-      <c r="G12" s="75"/>
-      <c r="H12" s="75"/>
-      <c r="I12" s="75"/>
-      <c r="J12" s="75"/>
-      <c r="K12" s="75"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="1"/>
-      <c r="B13" s="75"/>
-      <c r="C13" s="75"/>
-      <c r="D13" s="75"/>
-      <c r="E13" s="75"/>
-      <c r="F13" s="75"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="75"/>
-      <c r="I13" s="75"/>
-      <c r="J13" s="75"/>
-      <c r="K13" s="75"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="54"/>
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1"/>
-      <c r="B14" s="75"/>
-      <c r="C14" s="75"/>
-      <c r="D14" s="75"/>
-      <c r="E14" s="75"/>
-      <c r="F14" s="75"/>
-      <c r="G14" s="75"/>
-      <c r="H14" s="75"/>
-      <c r="I14" s="75"/>
-      <c r="J14" s="75"/>
-      <c r="K14" s="75"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
       <c r="L14" s="1"/>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="1"/>
-      <c r="B15" s="75"/>
-      <c r="C15" s="75"/>
-      <c r="D15" s="75"/>
-      <c r="E15" s="75"/>
-      <c r="F15" s="75"/>
-      <c r="G15" s="75"/>
-      <c r="H15" s="75"/>
-      <c r="I15" s="75"/>
-      <c r="J15" s="75"/>
-      <c r="K15" s="75"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54"/>
       <c r="L15" s="1"/>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="1"/>
-      <c r="B16" s="75"/>
-      <c r="C16" s="75"/>
-      <c r="D16" s="75"/>
-      <c r="E16" s="75"/>
-      <c r="F16" s="75"/>
-      <c r="G16" s="75"/>
-      <c r="H16" s="75"/>
-      <c r="I16" s="75"/>
-      <c r="J16" s="75"/>
-      <c r="K16" s="75"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54"/>
       <c r="L16" s="1"/>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="1"/>
-      <c r="B17" s="75"/>
-      <c r="C17" s="75"/>
-      <c r="D17" s="75"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="75"/>
-      <c r="I17" s="75"/>
-      <c r="J17" s="75"/>
-      <c r="K17" s="75"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="54"/>
       <c r="L17" s="1"/>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="1"/>
-      <c r="B18" s="75"/>
-      <c r="C18" s="75"/>
-      <c r="D18" s="75"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="75"/>
-      <c r="G18" s="75"/>
-      <c r="H18" s="75"/>
-      <c r="I18" s="75"/>
-      <c r="J18" s="75"/>
-      <c r="K18" s="75"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="54"/>
       <c r="L18" s="1"/>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="1"/>
-      <c r="B19" s="75"/>
-      <c r="C19" s="75"/>
-      <c r="D19" s="75"/>
-      <c r="E19" s="75"/>
-      <c r="F19" s="75"/>
-      <c r="G19" s="75"/>
-      <c r="H19" s="75"/>
-      <c r="I19" s="75"/>
-      <c r="J19" s="75"/>
-      <c r="K19" s="75"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="54"/>
       <c r="L19" s="1"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="1"/>
-      <c r="B20" s="75"/>
-      <c r="C20" s="75"/>
-      <c r="D20" s="75"/>
-      <c r="E20" s="75"/>
-      <c r="F20" s="75"/>
-      <c r="G20" s="75"/>
-      <c r="H20" s="75"/>
-      <c r="I20" s="75"/>
-      <c r="J20" s="75"/>
-      <c r="K20" s="75"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
       <c r="L20" s="1"/>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="1"/>
-      <c r="B21" s="75"/>
-      <c r="C21" s="75"/>
-      <c r="D21" s="75"/>
-      <c r="E21" s="75"/>
-      <c r="F21" s="75"/>
-      <c r="G21" s="75"/>
-      <c r="H21" s="75"/>
-      <c r="I21" s="75"/>
-      <c r="J21" s="75"/>
-      <c r="K21" s="75"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="54"/>
       <c r="L21" s="1"/>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="1"/>
-      <c r="B22" s="75"/>
-      <c r="C22" s="75"/>
-      <c r="D22" s="75"/>
-      <c r="E22" s="75"/>
-      <c r="F22" s="75"/>
-      <c r="G22" s="75"/>
-      <c r="H22" s="75"/>
-      <c r="I22" s="75"/>
-      <c r="J22" s="75"/>
-      <c r="K22" s="75"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="54"/>
       <c r="L22" s="1"/>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="1"/>
-      <c r="B23" s="75"/>
-      <c r="C23" s="75"/>
-      <c r="D23" s="75"/>
-      <c r="E23" s="75"/>
-      <c r="F23" s="75"/>
-      <c r="G23" s="75"/>
-      <c r="H23" s="75"/>
-      <c r="I23" s="75"/>
-      <c r="J23" s="75"/>
-      <c r="K23" s="75"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="54"/>
+      <c r="K23" s="54"/>
       <c r="L23" s="1"/>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="1"/>
-      <c r="B24" s="75"/>
-      <c r="C24" s="75"/>
-      <c r="D24" s="75"/>
-      <c r="E24" s="75"/>
-      <c r="F24" s="75"/>
-      <c r="G24" s="75"/>
-      <c r="H24" s="75"/>
-      <c r="I24" s="75"/>
-      <c r="J24" s="75"/>
-      <c r="K24" s="75"/>
+      <c r="B24" s="54"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="54"/>
+      <c r="K24" s="54"/>
       <c r="L24" s="1"/>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="1"/>
-      <c r="B25" s="76"/>
-      <c r="C25" s="76"/>
-      <c r="D25" s="76"/>
-      <c r="E25" s="75" t="s">
+      <c r="B25" s="55"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="F25" s="75"/>
-      <c r="G25" s="75"/>
-      <c r="H25" s="75"/>
-      <c r="I25" s="76"/>
-      <c r="J25" s="76"/>
-      <c r="K25" s="76"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="55"/>
+      <c r="K25" s="55"/>
       <c r="L25" s="1"/>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="1"/>
-      <c r="B26" s="76"/>
-      <c r="C26" s="76"/>
-      <c r="D26" s="76"/>
-      <c r="E26" s="76"/>
-      <c r="F26" s="76"/>
-      <c r="G26" s="76"/>
-      <c r="H26" s="76"/>
-      <c r="I26" s="76"/>
-      <c r="J26" s="76"/>
-      <c r="K26" s="76"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="55"/>
       <c r="L26" s="1"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="1"/>
-      <c r="B27" s="76"/>
-      <c r="C27" s="76"/>
-      <c r="D27" s="76"/>
-      <c r="E27" s="76"/>
-      <c r="F27" s="76"/>
-      <c r="G27" s="76"/>
-      <c r="H27" s="76"/>
-      <c r="I27" s="76"/>
-      <c r="J27" s="76"/>
-      <c r="K27" s="76"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
+      <c r="K27" s="55"/>
       <c r="L27" s="1"/>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="1"/>
-      <c r="B28" s="76"/>
-      <c r="C28" s="76"/>
-      <c r="D28" s="76"/>
-      <c r="E28" s="76"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="76"/>
-      <c r="H28" s="76"/>
-      <c r="I28" s="76"/>
-      <c r="J28" s="76"/>
-      <c r="K28" s="76"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="55"/>
+      <c r="K28" s="55"/>
       <c r="L28" s="1"/>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="1"/>
-      <c r="B29" s="76"/>
-      <c r="C29" s="76"/>
-      <c r="D29" s="76"/>
-      <c r="E29" s="76"/>
-      <c r="F29" s="76"/>
-      <c r="G29" s="76"/>
-      <c r="H29" s="76"/>
-      <c r="I29" s="76"/>
-      <c r="J29" s="76"/>
-      <c r="K29" s="76"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="55"/>
+      <c r="K29" s="55"/>
       <c r="L29" s="1"/>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="1"/>
-      <c r="B30" s="76"/>
-      <c r="C30" s="76"/>
-      <c r="D30" s="76"/>
-      <c r="E30" s="76"/>
-      <c r="F30" s="76"/>
-      <c r="G30" s="76"/>
-      <c r="H30" s="76"/>
-      <c r="I30" s="76"/>
-      <c r="J30" s="76"/>
-      <c r="K30" s="76"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="55"/>
+      <c r="K30" s="55"/>
       <c r="L30" s="1"/>
     </row>
     <row r="31" spans="1:12">
@@ -2107,1156 +2047,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:L31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
-  <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" s="38"/>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F4" s="29"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="F6" s="34"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="1"/>
-      <c r="B8" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="J8" s="38"/>
-      <c r="K8" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="L8" s="38"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="1"/>
-      <c r="B10" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="27"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="J10" s="38"/>
-      <c r="K10" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="L10" s="1"/>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="1"/>
-      <c r="B12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="J12" s="1"/>
-      <c r="K12" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="L12" s="1"/>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="J14" s="1"/>
-      <c r="K14" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="L14" s="1"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="J16" s="1"/>
-      <c r="K16" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="L16" s="1"/>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="J18" s="1"/>
-      <c r="K18" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="L18" s="1"/>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="38"/>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="J20" s="1"/>
-      <c r="K20" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="L20" s="1"/>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="1"/>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="J22" s="1"/>
-      <c r="K22" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="L22" s="1"/>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="J24" s="1"/>
-      <c r="K24" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="L24" s="1"/>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="27"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="J26" s="1"/>
-      <c r="K26" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="L26" s="1"/>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" s="27"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="J28" s="1"/>
-      <c r="K28" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="L28" s="1"/>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" s="27"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:L32"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
-  <cols>
-    <col min="6" max="6" width="4.09090909090909" customWidth="1"/>
-    <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="9.54545454545454" style="26" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" s="38"/>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F3" s="29"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="J5" s="32"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="F7" s="34"/>
-      <c r="G7" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="H7" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="I7" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="1"/>
-      <c r="B8" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="H9" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="I9" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="J9" s="38"/>
-      <c r="K9" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="L9" s="38"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="1"/>
-      <c r="B10" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="27"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="J11" s="38"/>
-      <c r="K11" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="1"/>
-      <c r="B12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="J13" s="1"/>
-      <c r="K13" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="L13" s="1"/>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="J15" s="1"/>
-      <c r="K15" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="L15" s="1"/>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="I17" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="J17" s="1"/>
-      <c r="K17" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="L17" s="1"/>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="I19" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="J19" s="1"/>
-      <c r="K19" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="L19" s="1"/>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="38"/>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H21" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="I21" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="J21" s="1"/>
-      <c r="K21" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="L21" s="1"/>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="1"/>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H23" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="I23" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="J23" s="1"/>
-      <c r="K23" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="L23" s="1"/>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="27"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H25" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="I25" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="J25" s="1"/>
-      <c r="K25" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="L25" s="1"/>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" s="27"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H27" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="I27" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="J27" s="1"/>
-      <c r="K27" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="L27" s="1"/>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" s="27"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H29" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="I29" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="J29" s="1"/>
-      <c r="K29" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="L29" s="1"/>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:L31"/>
   <sheetViews>
@@ -3264,7 +2055,7 @@
       <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1"/>
@@ -3291,7 +2082,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="13" t="s">
         <v>31</v>
       </c>
       <c r="L2" s="1"/>
@@ -3299,9 +2090,9 @@
     <row r="3" spans="1:12">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="3"/>
+        <v>65</v>
+      </c>
+      <c r="C3" s="2"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -3343,15 +2134,15 @@
     <row r="6" spans="1:12">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="25"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="18"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -3373,15 +2164,15 @@
     <row r="8" spans="1:12">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="17"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="14"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -3390,12 +2181,12 @@
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="6"/>
+      <c r="D9" s="4"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="18"/>
+      <c r="I9" s="15"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -3404,12 +2195,12 @@
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="6"/>
+      <c r="D10" s="4"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="18"/>
+      <c r="I10" s="15"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -3418,12 +2209,12 @@
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="6"/>
+      <c r="D11" s="4"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="18"/>
+      <c r="I11" s="15"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -3432,12 +2223,12 @@
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="6"/>
+      <c r="D12" s="4"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="18"/>
+      <c r="I12" s="15"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -3446,12 +2237,12 @@
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="6"/>
+      <c r="D13" s="4"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="18"/>
+      <c r="I13" s="15"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -3460,12 +2251,12 @@
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="19"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="16"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -3487,13 +2278,13 @@
     <row r="16" spans="1:12">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C16" s="1"/>
-      <c r="D16" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="E16" s="14"/>
+      <c r="D16" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="12"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -3519,15 +2310,15 @@
     <row r="18" spans="1:12">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C18" s="1"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="17"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="14"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -3536,12 +2327,12 @@
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="6"/>
+      <c r="D19" s="4"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="18"/>
+      <c r="I19" s="15"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -3550,12 +2341,12 @@
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="6"/>
+      <c r="D20" s="4"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="18"/>
+      <c r="I20" s="15"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -3564,14 +2355,14 @@
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="18"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="15"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -3580,12 +2371,12 @@
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="6"/>
+      <c r="D22" s="4"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
-      <c r="I22" s="18"/>
+      <c r="I22" s="15"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
@@ -3594,12 +2385,12 @@
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="6"/>
+      <c r="D23" s="4"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
-      <c r="I23" s="18"/>
+      <c r="I23" s="15"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
@@ -3608,12 +2399,12 @@
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="6"/>
+      <c r="D24" s="4"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
-      <c r="I24" s="18"/>
+      <c r="I24" s="15"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
@@ -3622,12 +2413,12 @@
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="19"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="16"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
@@ -3671,8 +2462,8 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
-      <c r="K28" s="23" t="s">
-        <v>74</v>
+      <c r="K28" s="17" t="s">
+        <v>72</v>
       </c>
       <c r="L28" s="1"/>
     </row>
@@ -3729,8 +2520,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:L31"/>
   <sheetViews>
@@ -3738,7 +2529,7 @@
       <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1"/>
@@ -3765,7 +2556,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="13" t="s">
         <v>31</v>
       </c>
       <c r="L2" s="1"/>
@@ -3773,9 +2564,9 @@
     <row r="3" spans="1:12">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="3"/>
+        <v>65</v>
+      </c>
+      <c r="C3" s="2"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -3803,15 +2594,15 @@
     <row r="5" spans="1:12">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="17"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="14"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -3820,12 +2611,12 @@
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="6"/>
+      <c r="D6" s="4"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="18"/>
+      <c r="I6" s="15"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -3834,12 +2625,12 @@
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="6"/>
+      <c r="D7" s="4"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="18"/>
+      <c r="I7" s="15"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -3848,12 +2639,12 @@
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="6"/>
+      <c r="D8" s="4"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="18"/>
+      <c r="I8" s="15"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -3862,12 +2653,12 @@
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="19"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="16"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -3882,27 +2673,27 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="15" t="s">
-        <v>76</v>
+      <c r="J10" s="17"/>
+      <c r="K10" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" ht="16.8" spans="1:12">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="10"/>
+        <v>75</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="7"/>
       <c r="E11" s="11"/>
-      <c r="F11" s="12"/>
+      <c r="F11" s="11"/>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
-      <c r="I11" s="21"/>
+      <c r="I11" s="18"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="22" t="s">
-        <v>78</v>
+      <c r="K11" s="19" t="s">
+        <v>76</v>
       </c>
       <c r="L11" s="1"/>
     </row>
@@ -3920,21 +2711,21 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" ht="16.8" spans="1:12">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="10"/>
+      <c r="D13" s="7"/>
       <c r="E13" s="11"/>
-      <c r="F13" s="12"/>
+      <c r="F13" s="11"/>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
-      <c r="I13" s="21"/>
+      <c r="I13" s="18"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="22" t="s">
-        <v>78</v>
+      <c r="K13" s="19" t="s">
+        <v>76</v>
       </c>
       <c r="L13" s="1"/>
     </row>
@@ -3952,21 +2743,21 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" ht="16.8" spans="1:12">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C15" s="1"/>
-      <c r="D15" s="10"/>
+      <c r="D15" s="7"/>
       <c r="E15" s="11"/>
-      <c r="F15" s="12"/>
+      <c r="F15" s="11"/>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
-      <c r="I15" s="21"/>
+      <c r="I15" s="18"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="22" t="s">
-        <v>78</v>
+      <c r="K15" s="19" t="s">
+        <v>76</v>
       </c>
       <c r="L15" s="1"/>
     </row>
@@ -3984,21 +2775,21 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" ht="16.8" spans="1:12">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C17" s="1"/>
-      <c r="D17" s="10"/>
+      <c r="D17" s="7"/>
       <c r="E17" s="11"/>
-      <c r="F17" s="12"/>
+      <c r="F17" s="11"/>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
-      <c r="I17" s="21"/>
+      <c r="I17" s="18"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="22" t="s">
-        <v>78</v>
+      <c r="K17" s="19" t="s">
+        <v>76</v>
       </c>
       <c r="L17" s="1"/>
     </row>
@@ -4019,13 +2810,13 @@
     <row r="19" spans="1:12">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C19" s="1"/>
-      <c r="D19" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="E19" s="14"/>
+      <c r="D19" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="12"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -4051,15 +2842,15 @@
     <row r="21" spans="1:12">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C21" s="1"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="17"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="14"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -4068,12 +2859,12 @@
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="6"/>
+      <c r="D22" s="4"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
-      <c r="I22" s="18"/>
+      <c r="I22" s="15"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
@@ -4082,12 +2873,12 @@
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="6"/>
+      <c r="D23" s="4"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
-      <c r="I23" s="18"/>
+      <c r="I23" s="15"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
@@ -4096,14 +2887,14 @@
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="18"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="15"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
@@ -4112,12 +2903,12 @@
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="6"/>
+      <c r="D25" s="4"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
-      <c r="I25" s="18"/>
+      <c r="I25" s="15"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
@@ -4126,12 +2917,12 @@
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="6"/>
+      <c r="D26" s="4"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
-      <c r="I26" s="18"/>
+      <c r="I26" s="15"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
@@ -4140,12 +2931,12 @@
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="6"/>
+      <c r="D27" s="4"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
-      <c r="I27" s="18"/>
+      <c r="I27" s="15"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
@@ -4154,12 +2945,12 @@
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="19"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="16"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
@@ -4189,8 +2980,8 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
-      <c r="K30" s="23" t="s">
-        <v>82</v>
+      <c r="K30" s="17" t="s">
+        <v>80</v>
       </c>
       <c r="L30" s="1"/>
     </row>
@@ -4220,7 +3011,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:L32"/>
   <sheetViews>
@@ -4228,7 +3019,7 @@
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1"/>
@@ -4292,172 +3083,172 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1"/>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39" t="s">
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1"/>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1"/>
-      <c r="B9" s="65"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="65"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1"/>
-      <c r="B10" s="66" t="s">
+      <c r="B10" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="67"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="66" t="s">
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="67"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="67"/>
-      <c r="K10" s="68"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="51"/>
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1"/>
-      <c r="B11" s="69"/>
-      <c r="C11" s="70"/>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="69"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="70"/>
-      <c r="K11" s="71"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="52"/>
       <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1"/>
-      <c r="B12" s="69" t="s">
+      <c r="B12" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="70"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="69" t="s">
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="H12" s="70"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="70"/>
-      <c r="K12" s="71"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="52"/>
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="1"/>
-      <c r="B13" s="69"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="70"/>
-      <c r="K13" s="71"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="52"/>
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1"/>
-      <c r="B14" s="69"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="70"/>
-      <c r="I14" s="70"/>
-      <c r="J14" s="70"/>
-      <c r="K14" s="71"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="52"/>
       <c r="L14" s="1"/>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="1"/>
-      <c r="B15" s="72"/>
-      <c r="C15" s="73"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="63" t="s">
+      <c r="B15" s="49"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="64"/>
-      <c r="G15" s="72"/>
-      <c r="H15" s="73"/>
-      <c r="I15" s="73"/>
-      <c r="J15" s="63" t="s">
+      <c r="F15" s="12"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K15" s="64"/>
+      <c r="K15" s="12"/>
       <c r="L15" s="1"/>
     </row>
     <row r="16" spans="1:12">
@@ -4476,172 +3267,172 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="1"/>
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39" t="s">
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="39"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
       <c r="L17" s="1"/>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="1"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="39"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
       <c r="L18" s="1"/>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="1"/>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="39"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
       <c r="L19" s="1"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="1"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="39"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
       <c r="L20" s="1"/>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="1"/>
-      <c r="B21" s="65"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="65"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="65"/>
-      <c r="J21" s="65"/>
-      <c r="K21" s="65"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="44"/>
       <c r="L21" s="1"/>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="1"/>
-      <c r="B22" s="66" t="s">
+      <c r="B22" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="67"/>
-      <c r="D22" s="67"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="68"/>
-      <c r="G22" s="66" t="s">
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="H22" s="67"/>
-      <c r="I22" s="67"/>
-      <c r="J22" s="67"/>
-      <c r="K22" s="68"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="51"/>
       <c r="L22" s="1"/>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="1"/>
-      <c r="B23" s="69"/>
-      <c r="C23" s="70"/>
-      <c r="D23" s="70"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="71"/>
-      <c r="G23" s="69"/>
-      <c r="H23" s="70"/>
-      <c r="I23" s="70"/>
-      <c r="J23" s="70"/>
-      <c r="K23" s="71"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="52"/>
       <c r="L23" s="1"/>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="1"/>
-      <c r="B24" s="69" t="s">
+      <c r="B24" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="70"/>
-      <c r="D24" s="70"/>
-      <c r="E24" s="70"/>
-      <c r="F24" s="71"/>
-      <c r="G24" s="69" t="s">
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="H24" s="70"/>
-      <c r="I24" s="70"/>
-      <c r="J24" s="70"/>
-      <c r="K24" s="71"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="48"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="52"/>
       <c r="L24" s="1"/>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="1"/>
-      <c r="B25" s="69"/>
-      <c r="C25" s="70"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="71"/>
-      <c r="G25" s="69"/>
-      <c r="H25" s="70"/>
-      <c r="I25" s="70"/>
-      <c r="J25" s="70"/>
-      <c r="K25" s="71"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="48"/>
+      <c r="K25" s="52"/>
       <c r="L25" s="1"/>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="1"/>
-      <c r="B26" s="69"/>
-      <c r="C26" s="70"/>
-      <c r="D26" s="70"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="69"/>
-      <c r="H26" s="70"/>
-      <c r="I26" s="70"/>
-      <c r="J26" s="70"/>
-      <c r="K26" s="71"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="52"/>
       <c r="L26" s="1"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="1"/>
-      <c r="B27" s="72"/>
-      <c r="C27" s="73"/>
-      <c r="D27" s="73"/>
-      <c r="E27" s="63" t="s">
+      <c r="B27" s="49"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F27" s="64"/>
-      <c r="G27" s="72"/>
-      <c r="H27" s="73"/>
-      <c r="I27" s="73"/>
-      <c r="J27" s="63" t="s">
+      <c r="F27" s="12"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K27" s="64"/>
+      <c r="K27" s="12"/>
       <c r="L27" s="1"/>
     </row>
     <row r="28" spans="1:12">
@@ -4664,10 +3455,10 @@
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
-      <c r="F29" s="74" t="s">
+      <c r="F29" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="G29" s="16"/>
+      <c r="G29" s="13"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -4734,7 +3525,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:R31"/>
   <sheetViews>
@@ -4742,7 +3533,7 @@
       <selection activeCell="AW9" sqref="AW9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1"/>
@@ -4806,151 +3597,151 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1"/>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="57"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="38"/>
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="58"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="39"/>
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="1"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="58"/>
-      <c r="L7" s="59" t="s">
+      <c r="B7" s="34"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="O7" s="60" t="s">
+      <c r="O7" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="P7" s="61"/>
-      <c r="Q7" s="61"/>
-      <c r="R7" s="61"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="43"/>
+      <c r="R7" s="43"/>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="1"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="58"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="39"/>
       <c r="L8" s="1"/>
-      <c r="O8" s="61"/>
-      <c r="P8" s="61"/>
-      <c r="Q8" s="61"/>
-      <c r="R8" s="61"/>
+      <c r="O8" s="43"/>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="43"/>
+      <c r="R8" s="43"/>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="1"/>
-      <c r="B9" s="53"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="58"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="39"/>
       <c r="L9" s="1"/>
-      <c r="O9" s="61"/>
-      <c r="P9" s="61"/>
-      <c r="Q9" s="61"/>
-      <c r="R9" s="61"/>
+      <c r="O9" s="43"/>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="43"/>
+      <c r="R9" s="43"/>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="1"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="58"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="39"/>
       <c r="L10" s="1"/>
-      <c r="O10" s="61"/>
-      <c r="P10" s="61"/>
-      <c r="Q10" s="61"/>
-      <c r="R10" s="61"/>
+      <c r="O10" s="43"/>
+      <c r="P10" s="43"/>
+      <c r="Q10" s="43"/>
+      <c r="R10" s="43"/>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="1"/>
-      <c r="B11" s="54"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="55"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="62"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="41"/>
       <c r="L11" s="1"/>
-      <c r="O11" s="61"/>
-      <c r="P11" s="61"/>
-      <c r="Q11" s="61"/>
-      <c r="R11" s="61"/>
+      <c r="O11" s="43"/>
+      <c r="P11" s="43"/>
+      <c r="Q11" s="43"/>
+      <c r="R11" s="43"/>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="1"/>
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="46"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="14"/>
       <c r="L12" s="1"/>
-      <c r="O12" s="61"/>
-      <c r="P12" s="61"/>
-      <c r="Q12" s="61"/>
-      <c r="R12" s="61"/>
+      <c r="O12" s="43"/>
+      <c r="P12" s="43"/>
+      <c r="Q12" s="43"/>
+      <c r="R12" s="43"/>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="1"/>
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="1"/>
@@ -4961,16 +3752,16 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="27"/>
+      <c r="K13" s="15"/>
       <c r="L13" s="1"/>
-      <c r="O13" s="61"/>
-      <c r="P13" s="61"/>
-      <c r="Q13" s="61"/>
-      <c r="R13" s="61"/>
+      <c r="O13" s="43"/>
+      <c r="P13" s="43"/>
+      <c r="Q13" s="43"/>
+      <c r="R13" s="43"/>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1"/>
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="1"/>
@@ -4981,12 +3772,12 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="27"/>
+      <c r="K14" s="15"/>
       <c r="L14" s="1"/>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="1"/>
-      <c r="B15" s="43"/>
+      <c r="B15" s="4"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -4995,12 +3786,12 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="27"/>
+      <c r="K15" s="15"/>
       <c r="L15" s="1"/>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="1"/>
-      <c r="B16" s="56" t="s">
+      <c r="B16" s="37" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="1"/>
@@ -5011,12 +3802,12 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="27"/>
+      <c r="K16" s="15"/>
       <c r="L16" s="1"/>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="1"/>
-      <c r="B17" s="43"/>
+      <c r="B17" s="4"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -5025,62 +3816,62 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="27"/>
+      <c r="K17" s="15"/>
       <c r="L17" s="1"/>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="1"/>
-      <c r="B18" s="53" t="s">
+      <c r="B18" s="34" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="16" t="s">
+      <c r="G18" s="13" t="s">
         <v>19</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
-      <c r="K18" s="27"/>
+      <c r="K18" s="15"/>
       <c r="L18" s="1"/>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="1"/>
-      <c r="B19" s="43"/>
+      <c r="B19" s="4"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="16"/>
+      <c r="G19" s="13"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="27"/>
+      <c r="K19" s="15"/>
       <c r="L19" s="1"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="1"/>
-      <c r="B20" s="53" t="s">
+      <c r="B20" s="34" t="s">
         <v>20</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="16" t="s">
+      <c r="G20" s="13" t="s">
         <v>21</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="27"/>
+      <c r="K20" s="15"/>
       <c r="L20" s="1"/>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="1"/>
-      <c r="B21" s="43"/>
+      <c r="B21" s="4"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -5089,21 +3880,21 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="27"/>
+      <c r="K21" s="15"/>
       <c r="L21" s="1"/>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="1"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="45"/>
-      <c r="K22" s="47"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="16"/>
       <c r="L22" s="1"/>
     </row>
     <row r="23" spans="1:12">
@@ -5176,10 +3967,10 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="63" t="s">
+      <c r="J27" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="K27" s="64"/>
+      <c r="K27" s="12"/>
       <c r="L27" s="1"/>
     </row>
     <row r="28" spans="1:12">
@@ -5250,7 +4041,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:L31"/>
   <sheetViews>
@@ -5258,7 +4049,7 @@
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1"/>
@@ -5375,123 +4166,123 @@
     <row r="9" spans="1:12">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="46"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="14"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="43"/>
+      <c r="C10" s="4"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="27"/>
+      <c r="J10" s="15"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="43"/>
+      <c r="C11" s="4"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="27"/>
+      <c r="J11" s="15"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38" t="s">
+      <c r="C12" s="4"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="29"/>
-      <c r="G12" s="40"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="18"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="27"/>
+      <c r="J12" s="15"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="43"/>
+      <c r="C13" s="4"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="27"/>
+      <c r="J13" s="15"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="43"/>
+      <c r="C14" s="4"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="27"/>
+      <c r="J14" s="15"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38" t="s">
+      <c r="C15" s="4"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="29"/>
-      <c r="G15" s="40"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="18"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="27"/>
+      <c r="J15" s="15"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="43"/>
+      <c r="C16" s="4"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="27"/>
+      <c r="J16" s="15"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="43"/>
+      <c r="C17" s="4"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
         <v>27</v>
@@ -5500,93 +4291,93 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="27"/>
+      <c r="J17" s="15"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" ht="17" spans="1:12">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="43"/>
+      <c r="C18" s="4"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="37" t="s">
+      <c r="E18" s="21" t="s">
         <v>28</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="27"/>
+      <c r="J18" s="15"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="43"/>
+      <c r="C19" s="4"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="27"/>
+      <c r="J19" s="15"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
-      <c r="C20" s="43"/>
+      <c r="C20" s="4"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="27"/>
+      <c r="J20" s="15"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
-      <c r="C21" s="43"/>
+      <c r="C21" s="4"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="27"/>
+      <c r="J21" s="15"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="43"/>
+      <c r="C22" s="4"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="27"/>
+      <c r="J22" s="15"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="47"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="16"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
     </row>
@@ -5709,7 +4500,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:L29"/>
   <sheetViews>
@@ -5717,7 +4508,7 @@
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1"/>
@@ -5806,220 +4597,220 @@
     <row r="7" spans="1:12">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="46"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="14"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="43"/>
+      <c r="C8" s="4"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="27"/>
+      <c r="J8" s="15"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="43"/>
+      <c r="C9" s="4"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="38" t="s">
+      <c r="E9" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="29"/>
-      <c r="G9" s="40"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="18"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="27"/>
+      <c r="J9" s="15"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="43"/>
+      <c r="C10" s="4"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="38"/>
+      <c r="E10" s="17"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="27"/>
+      <c r="J10" s="15"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="43"/>
+      <c r="C11" s="4"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="27"/>
+      <c r="J11" s="15"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38" t="s">
+      <c r="C12" s="4"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="29"/>
-      <c r="G12" s="40"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="18"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="27"/>
+      <c r="J12" s="15"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="43"/>
+      <c r="C13" s="4"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="27"/>
+      <c r="J13" s="15"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="43"/>
+      <c r="C14" s="4"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="27"/>
+      <c r="J14" s="15"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38" t="s">
+      <c r="C15" s="4"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="29"/>
-      <c r="G15" s="40"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="18"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="27"/>
+      <c r="J15" s="15"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="43"/>
+      <c r="C16" s="4"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="27"/>
+      <c r="J16" s="15"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="43"/>
+      <c r="C17" s="4"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="27"/>
+      <c r="J17" s="15"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="43"/>
+      <c r="C18" s="4"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="38" t="s">
+      <c r="E18" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="29"/>
-      <c r="G18" s="40"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="18"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="27"/>
+      <c r="J18" s="15"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="43"/>
+      <c r="C19" s="4"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="27"/>
+      <c r="J19" s="15"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
-      <c r="C20" s="43"/>
+      <c r="C20" s="4"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="39" t="s">
+      <c r="F20" s="28" t="s">
         <v>1</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="27"/>
+      <c r="J20" s="15"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="47"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="16"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
@@ -6142,20 +4933,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="27"/>
+      <c r="C1" s="15"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -6169,7 +4960,7 @@
     <row r="2" spans="1:12">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="27"/>
+      <c r="C2" s="15"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -6177,15 +4968,15 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="38"/>
+      <c r="L2" s="17"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="27"/>
+      <c r="C3" s="15"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -6193,15 +4984,15 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-      <c r="K3" s="37"/>
+      <c r="K3" s="21"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:14">
       <c r="A4" s="1"/>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="27"/>
+      <c r="C4" s="15"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -6211,11 +5002,12 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
+      <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="27"/>
+      <c r="C5" s="15"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -6231,9 +5023,9 @@
       <c r="B6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="27"/>
+      <c r="C6" s="15"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="48" t="s">
+      <c r="E6" s="30" t="s">
         <v>32</v>
       </c>
       <c r="F6" s="1"/>
@@ -6247,7 +5039,7 @@
     <row r="7" spans="1:12">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="27"/>
+      <c r="C7" s="15"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -6263,27 +5055,27 @@
       <c r="B8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="27"/>
+      <c r="C8" s="15"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="33" t="s">
+      <c r="E8" s="22" t="s">
         <v>35</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="49" t="s">
+      <c r="I8" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="J8" s="38"/>
-      <c r="K8" s="34" t="s">
+      <c r="J8" s="17"/>
+      <c r="K8" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="L8" s="38"/>
+      <c r="L8" s="17"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="27"/>
+      <c r="C9" s="15"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -6297,7 +5089,7 @@
     <row r="10" spans="1:12">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="27"/>
+      <c r="C10" s="15"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
         <v>38</v>
@@ -6305,11 +5097,11 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="38" t="s">
+      <c r="I10" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="J10" s="38"/>
-      <c r="K10" s="16" t="s">
+      <c r="J10" s="17"/>
+      <c r="K10" s="13" t="s">
         <v>16</v>
       </c>
       <c r="L10" s="1"/>
@@ -6317,7 +5109,7 @@
     <row r="11" spans="1:12">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="27"/>
+      <c r="C11" s="15"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -6331,7 +5123,7 @@
     <row r="12" spans="1:12">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="27"/>
+      <c r="C12" s="15"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
         <v>16</v>
@@ -6339,11 +5131,11 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="38" t="s">
+      <c r="I12" s="17" t="s">
         <v>16</v>
       </c>
       <c r="J12" s="1"/>
-      <c r="K12" s="16" t="s">
+      <c r="K12" s="13" t="s">
         <v>16</v>
       </c>
       <c r="L12" s="1"/>
@@ -6351,7 +5143,7 @@
     <row r="13" spans="1:12">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="27"/>
+      <c r="C13" s="15"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -6365,7 +5157,7 @@
     <row r="14" spans="1:12">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="27"/>
+      <c r="C14" s="15"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -6379,7 +5171,7 @@
     <row r="15" spans="1:12">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="27"/>
+      <c r="C15" s="15"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -6393,7 +5185,7 @@
     <row r="16" spans="1:12">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="27"/>
+      <c r="C16" s="15"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -6407,7 +5199,7 @@
     <row r="17" spans="1:12">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="27"/>
+      <c r="C17" s="15"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -6421,7 +5213,7 @@
     <row r="18" spans="1:12">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="27"/>
+      <c r="C18" s="15"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -6435,27 +5227,27 @@
     <row r="19" spans="1:12">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="27"/>
+      <c r="C19" s="15"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="33" t="s">
+      <c r="E19" s="22" t="s">
         <v>40</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="34" t="s">
+      <c r="H19" s="26" t="s">
         <v>41</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="33"/>
-      <c r="L19" s="49" t="s">
+      <c r="K19" s="22"/>
+      <c r="L19" s="31" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
-      <c r="C20" s="27"/>
+      <c r="C20" s="15"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -6469,7 +5261,7 @@
     <row r="21" spans="1:12">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
-      <c r="C21" s="27"/>
+      <c r="C21" s="15"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
         <v>11</v>
@@ -6478,12 +5270,12 @@
         <v>43</v>
       </c>
       <c r="G21" s="1"/>
-      <c r="H21" s="16" t="s">
+      <c r="H21" s="13" t="s">
         <v>16</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="16" t="s">
+      <c r="K21" s="13" t="s">
         <v>16</v>
       </c>
       <c r="L21" s="1"/>
@@ -6491,7 +5283,7 @@
     <row r="22" spans="1:12">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="27"/>
+      <c r="C22" s="15"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -6505,7 +5297,7 @@
     <row r="23" spans="1:12">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
-      <c r="C23" s="27"/>
+      <c r="C23" s="15"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -6519,7 +5311,7 @@
     <row r="24" spans="1:12">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
-      <c r="C24" s="27"/>
+      <c r="C24" s="15"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -6535,7 +5327,7 @@
       <c r="B25" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="27"/>
+      <c r="C25" s="15"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -6549,7 +5341,7 @@
     <row r="26" spans="1:12">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
-      <c r="C26" s="27"/>
+      <c r="C26" s="15"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -6565,7 +5357,7 @@
       <c r="B27" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="27"/>
+      <c r="C27" s="15"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -6579,7 +5371,7 @@
     <row r="28" spans="1:12">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
-      <c r="C28" s="27"/>
+      <c r="C28" s="15"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -6595,7 +5387,7 @@
       <c r="B29" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="27"/>
+      <c r="C29" s="15"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -6609,7 +5401,7 @@
     <row r="30" spans="1:12">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="C30" s="27"/>
+      <c r="C30" s="15"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -6623,7 +5415,7 @@
     <row r="31" spans="1:12">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
-      <c r="C31" s="27"/>
+      <c r="C31" s="15"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -6634,6 +5426,12 @@
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
     </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -6641,15 +5439,15 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1"/>
@@ -6766,137 +5564,137 @@
     <row r="9" spans="1:12">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="46"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="14"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="43"/>
+      <c r="C10" s="4"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="27"/>
+      <c r="J10" s="15"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="43"/>
+      <c r="C11" s="4"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="27"/>
+      <c r="J11" s="15"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38" t="s">
+      <c r="C12" s="4"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="F12" s="29"/>
-      <c r="G12" s="40"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="18"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="27"/>
+      <c r="J12" s="15"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="43"/>
+      <c r="C13" s="4"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="27"/>
+      <c r="J13" s="15"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="43"/>
+      <c r="C14" s="4"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="27"/>
+      <c r="J14" s="15"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38" t="s">
+      <c r="C15" s="4"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="29"/>
-      <c r="G15" s="40"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="18"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="27"/>
+      <c r="J15" s="15"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="43"/>
+      <c r="C16" s="4"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="27"/>
+      <c r="J16" s="15"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="43"/>
+      <c r="C17" s="4"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="27"/>
+      <c r="J17" s="15"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="43"/>
+      <c r="C18" s="4"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
         <v>27</v>
@@ -6905,77 +5703,77 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="27"/>
+      <c r="J18" s="15"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="43"/>
+      <c r="C19" s="4"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="27"/>
+      <c r="J19" s="15"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
-      <c r="C20" s="43"/>
+      <c r="C20" s="4"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="27"/>
+      <c r="J20" s="15"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
-      <c r="C21" s="43"/>
+      <c r="C21" s="4"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="27"/>
+      <c r="J21" s="15"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="43"/>
+      <c r="C22" s="4"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="27"/>
+      <c r="J22" s="15"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="47"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="16"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
     </row>
@@ -7098,20 +5896,20 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="27"/>
+      <c r="C1" s="15"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -7125,7 +5923,7 @@
     <row r="2" spans="1:12">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="27"/>
+      <c r="C2" s="15"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -7133,34 +5931,36 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="38"/>
+      <c r="L2" s="17"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="27"/>
+      <c r="C3" s="15"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="33"/>
+      <c r="E3" s="22"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-      <c r="K3" s="37"/>
+      <c r="K3" s="21"/>
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="27"/>
+      <c r="C4" s="15"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="18"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -7169,7 +5969,7 @@
     <row r="5" spans="1:12">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="27"/>
+      <c r="C5" s="15"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -7182,19 +5982,19 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="27"/>
+      <c r="B6" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="15"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="E6" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="34" t="s">
-        <v>50</v>
+      <c r="I6" s="26" t="s">
+        <v>51</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -7203,7 +6003,7 @@
     <row r="7" spans="1:12">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="27"/>
+      <c r="C7" s="15"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -7217,29 +6017,29 @@
     <row r="8" spans="1:12">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="27"/>
+        <v>52</v>
+      </c>
+      <c r="C8" s="15"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="G8" s="23"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="J8" s="38"/>
-      <c r="K8" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="L8" s="38"/>
+      <c r="I8" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="J8" s="17"/>
+      <c r="K8" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="L8" s="17"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="27"/>
+      <c r="C9" s="15"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -7252,10 +6052,10 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1"/>
-      <c r="B10" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="27"/>
+      <c r="B10" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="15"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
         <v>16</v>
@@ -7263,19 +6063,19 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="16" t="s">
+      <c r="I10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="38"/>
-      <c r="K10" s="39" t="s">
-        <v>53</v>
+      <c r="J10" s="17"/>
+      <c r="K10" s="28" t="s">
+        <v>55</v>
       </c>
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="27"/>
+      <c r="C11" s="15"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -7288,8 +6088,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="27"/>
+      <c r="C12" s="15"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
         <v>16</v>
@@ -7297,19 +6096,19 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="16" t="s">
+      <c r="I12" s="13" t="s">
         <v>16</v>
       </c>
       <c r="J12" s="1"/>
-      <c r="K12" s="39" t="s">
-        <v>53</v>
+      <c r="K12" s="28" t="s">
+        <v>55</v>
       </c>
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="27"/>
+      <c r="C13" s="15"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -7323,7 +6122,7 @@
     <row r="14" spans="1:12">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="27"/>
+      <c r="C14" s="15"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
         <v>16</v>
@@ -7331,19 +6130,19 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="16" t="s">
+      <c r="I14" s="13" t="s">
         <v>16</v>
       </c>
       <c r="J14" s="1"/>
-      <c r="K14" s="39" t="s">
-        <v>53</v>
+      <c r="K14" s="28" t="s">
+        <v>55</v>
       </c>
       <c r="L14" s="1"/>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="27"/>
+      <c r="C15" s="15"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -7357,7 +6156,7 @@
     <row r="16" spans="1:12">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="27"/>
+      <c r="C16" s="15"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
         <v>16</v>
@@ -7365,19 +6164,19 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="16" t="s">
+      <c r="I16" s="13" t="s">
         <v>16</v>
       </c>
       <c r="J16" s="1"/>
-      <c r="K16" s="39" t="s">
-        <v>53</v>
+      <c r="K16" s="28" t="s">
+        <v>55</v>
       </c>
       <c r="L16" s="1"/>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="27"/>
+      <c r="C17" s="15"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -7391,7 +6190,7 @@
     <row r="18" spans="1:12">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="27"/>
+      <c r="C18" s="15"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
         <v>16</v>
@@ -7399,33 +6198,33 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="16" t="s">
+      <c r="I18" s="13" t="s">
         <v>16</v>
       </c>
       <c r="J18" s="1"/>
-      <c r="K18" s="39" t="s">
-        <v>53</v>
+      <c r="K18" s="28" t="s">
+        <v>55</v>
       </c>
       <c r="L18" s="1"/>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="27"/>
+      <c r="C19" s="15"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="16"/>
+      <c r="H19" s="13"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
-      <c r="L19" s="38"/>
+      <c r="L19" s="17"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
-      <c r="C20" s="27"/>
+      <c r="C20" s="15"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
         <v>16</v>
@@ -7433,33 +6232,33 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="16" t="s">
+      <c r="I20" s="13" t="s">
         <v>16</v>
       </c>
       <c r="J20" s="1"/>
-      <c r="K20" s="39" t="s">
-        <v>53</v>
+      <c r="K20" s="28" t="s">
+        <v>55</v>
       </c>
       <c r="L20" s="1"/>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
-      <c r="C21" s="27"/>
+      <c r="C21" s="15"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="16"/>
+      <c r="H21" s="13"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="16"/>
+      <c r="K21" s="13"/>
       <c r="L21" s="1"/>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="27"/>
+      <c r="C22" s="15"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
         <v>16</v>
@@ -7467,19 +6266,19 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
-      <c r="I22" s="16" t="s">
+      <c r="I22" s="13" t="s">
         <v>16</v>
       </c>
       <c r="J22" s="1"/>
-      <c r="K22" s="39" t="s">
-        <v>53</v>
+      <c r="K22" s="28" t="s">
+        <v>55</v>
       </c>
       <c r="L22" s="1"/>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
-      <c r="C23" s="27"/>
+      <c r="C23" s="15"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -7493,7 +6292,7 @@
     <row r="24" spans="1:12">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
-      <c r="C24" s="27"/>
+      <c r="C24" s="15"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
         <v>16</v>
@@ -7501,12 +6300,12 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
-      <c r="I24" s="16" t="s">
+      <c r="I24" s="13" t="s">
         <v>16</v>
       </c>
       <c r="J24" s="1"/>
-      <c r="K24" s="39" t="s">
-        <v>53</v>
+      <c r="K24" s="28" t="s">
+        <v>55</v>
       </c>
       <c r="L24" s="1"/>
     </row>
@@ -7515,7 +6314,7 @@
       <c r="B25" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="27"/>
+      <c r="C25" s="15"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -7529,7 +6328,7 @@
     <row r="26" spans="1:12">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
-      <c r="C26" s="27"/>
+      <c r="C26" s="15"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1" t="s">
         <v>16</v>
@@ -7537,12 +6336,12 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
-      <c r="I26" s="16" t="s">
+      <c r="I26" s="13" t="s">
         <v>16</v>
       </c>
       <c r="J26" s="1"/>
-      <c r="K26" s="39" t="s">
-        <v>53</v>
+      <c r="K26" s="28" t="s">
+        <v>55</v>
       </c>
       <c r="L26" s="1"/>
     </row>
@@ -7551,7 +6350,7 @@
       <c r="B27" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="27"/>
+      <c r="C27" s="15"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -7565,7 +6364,7 @@
     <row r="28" spans="1:12">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
-      <c r="C28" s="27"/>
+      <c r="C28" s="15"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1" t="s">
         <v>16</v>
@@ -7573,12 +6372,12 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="16" t="s">
+      <c r="I28" s="13" t="s">
         <v>16</v>
       </c>
       <c r="J28" s="1"/>
-      <c r="K28" s="39" t="s">
-        <v>53</v>
+      <c r="K28" s="28" t="s">
+        <v>55</v>
       </c>
       <c r="L28" s="1"/>
     </row>
@@ -7587,7 +6386,7 @@
       <c r="B29" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="27"/>
+      <c r="C29" s="15"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -7601,7 +6400,7 @@
     <row r="30" spans="1:12">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="C30" s="27"/>
+      <c r="C30" s="15"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -7615,7 +6414,7 @@
     <row r="31" spans="1:12">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
-      <c r="C31" s="27"/>
+      <c r="C31" s="15"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -7633,25 +6432,30 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14"/>
+  <cols>
+    <col min="6" max="6" width="4.09375" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="9.546875" style="20" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="27"/>
+      <c r="C1" s="15"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="H1" s="23"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -7660,42 +6464,44 @@
     <row r="2" spans="1:12">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="27"/>
+      <c r="C2" s="15"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+      <c r="H2" s="23"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="38"/>
+      <c r="L2" s="17"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="27"/>
+      <c r="C3" s="15"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="24"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-      <c r="K3" s="37"/>
+      <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="27"/>
+      <c r="C4" s="15"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="H4" s="23"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -7704,33 +6510,31 @@
     <row r="5" spans="1:12">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="27"/>
+      <c r="C5" s="15"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" s="25"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1"/>
-      <c r="B6" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="27"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="15"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="33" t="s">
-        <v>49</v>
-      </c>
+      <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="34" t="s">
-        <v>50</v>
-      </c>
+      <c r="H6" s="23"/>
+      <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -7738,311 +6542,347 @@
     <row r="7" spans="1:12">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="27"/>
+      <c r="C7" s="15"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
+      <c r="E7" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="26"/>
+      <c r="G7" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" s="27" t="s">
+        <v>61</v>
+      </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1"/>
-      <c r="B8" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="27"/>
+      <c r="B8" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="15"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="J8" s="38"/>
-      <c r="K8" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="L8" s="38"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="27"/>
+      <c r="C9" s="15"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
+      <c r="G9" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="17"/>
+      <c r="K9" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="L9" s="17"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1"/>
-      <c r="B10" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="27"/>
+      <c r="B10" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="15"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="J10" s="38"/>
-      <c r="K10" s="39" t="s">
-        <v>53</v>
-      </c>
+      <c r="H10" s="23"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="27"/>
+      <c r="C11" s="15"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
+      <c r="G11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="17"/>
+      <c r="K11" s="28" t="s">
+        <v>64</v>
+      </c>
       <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="27"/>
+      <c r="B12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="15"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="16" t="s">
-        <v>16</v>
-      </c>
+      <c r="H12" s="23"/>
+      <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="39" t="s">
-        <v>53</v>
-      </c>
+      <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="27"/>
+      <c r="C13" s="15"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
+      <c r="G13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>16</v>
+      </c>
       <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="K13" s="28" t="s">
+        <v>64</v>
+      </c>
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="27"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="15"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="16" t="s">
-        <v>16</v>
-      </c>
+      <c r="H14" s="23"/>
+      <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="39" t="s">
-        <v>53</v>
-      </c>
+      <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="27"/>
+      <c r="C15" s="15"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>16</v>
+      </c>
       <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
+      <c r="K15" s="28" t="s">
+        <v>64</v>
+      </c>
       <c r="L15" s="1"/>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="27"/>
+      <c r="C16" s="15"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="16" t="s">
-        <v>16</v>
-      </c>
+      <c r="H16" s="23"/>
+      <c r="I16" s="1"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="39" t="s">
-        <v>53</v>
-      </c>
+      <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="27"/>
+      <c r="C17" s="15"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="E17" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
+      <c r="G17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>16</v>
+      </c>
       <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
+      <c r="K17" s="28" t="s">
+        <v>64</v>
+      </c>
       <c r="L17" s="1"/>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="27"/>
+      <c r="C18" s="15"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="16" t="s">
-        <v>16</v>
-      </c>
+      <c r="H18" s="23"/>
+      <c r="I18" s="1"/>
       <c r="J18" s="1"/>
-      <c r="K18" s="39" t="s">
-        <v>53</v>
-      </c>
+      <c r="K18" s="1"/>
       <c r="L18" s="1"/>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="27"/>
+      <c r="C19" s="15"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="E19" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="1"/>
+      <c r="G19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>16</v>
+      </c>
       <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="38"/>
+      <c r="K19" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="L19" s="1"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
-      <c r="C20" s="27"/>
+      <c r="C20" s="15"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="16" t="s">
-        <v>16</v>
-      </c>
+      <c r="H20" s="23"/>
+      <c r="I20" s="1"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="L20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="17"/>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
-      <c r="C21" s="27"/>
+      <c r="C21" s="15"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="E21" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="1"/>
+      <c r="G21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>16</v>
+      </c>
       <c r="J21" s="1"/>
-      <c r="K21" s="16"/>
+      <c r="K21" s="28" t="s">
+        <v>64</v>
+      </c>
       <c r="L21" s="1"/>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="27"/>
+      <c r="C22" s="15"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="16" t="s">
-        <v>16</v>
-      </c>
+      <c r="H22" s="23"/>
+      <c r="I22" s="1"/>
       <c r="J22" s="1"/>
-      <c r="K22" s="39" t="s">
-        <v>53</v>
-      </c>
+      <c r="K22" s="13"/>
       <c r="L22" s="1"/>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
-      <c r="C23" s="27"/>
+      <c r="C23" s="15"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
+      <c r="E23" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
+      <c r="G23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>16</v>
+      </c>
       <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
+      <c r="K23" s="28" t="s">
+        <v>64</v>
+      </c>
       <c r="L23" s="1"/>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
-      <c r="C24" s="27"/>
+      <c r="C24" s="15"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="16" t="s">
-        <v>16</v>
-      </c>
+      <c r="H24" s="23"/>
+      <c r="I24" s="1"/>
       <c r="J24" s="1"/>
-      <c r="K24" s="39" t="s">
-        <v>53</v>
-      </c>
+      <c r="K24" s="1"/>
       <c r="L24" s="1"/>
     </row>
     <row r="25" spans="1:12">
@@ -8050,35 +6890,39 @@
       <c r="B25" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="27"/>
+      <c r="C25" s="15"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
+      <c r="E25" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
+      <c r="G25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>16</v>
+      </c>
       <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
+      <c r="K25" s="28" t="s">
+        <v>64</v>
+      </c>
       <c r="L25" s="1"/>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
-      <c r="C26" s="27"/>
+      <c r="C26" s="15"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="16" t="s">
-        <v>16</v>
-      </c>
+      <c r="H26" s="23"/>
+      <c r="I26" s="1"/>
       <c r="J26" s="1"/>
-      <c r="K26" s="39" t="s">
-        <v>53</v>
-      </c>
+      <c r="K26" s="1"/>
       <c r="L26" s="1"/>
     </row>
     <row r="27" spans="1:12">
@@ -8086,35 +6930,39 @@
       <c r="B27" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="27"/>
+      <c r="C27" s="15"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
+      <c r="E27" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
+      <c r="G27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="I27" s="13" t="s">
+        <v>16</v>
+      </c>
       <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
+      <c r="K27" s="28" t="s">
+        <v>64</v>
+      </c>
       <c r="L27" s="1"/>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
-      <c r="C28" s="27"/>
+      <c r="C28" s="15"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="16" t="s">
-        <v>16</v>
-      </c>
+      <c r="H28" s="23"/>
+      <c r="I28" s="1"/>
       <c r="J28" s="1"/>
-      <c r="K28" s="39" t="s">
-        <v>53</v>
-      </c>
+      <c r="K28" s="1"/>
       <c r="L28" s="1"/>
     </row>
     <row r="29" spans="1:12">
@@ -8122,26 +6970,36 @@
       <c r="B29" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="27"/>
+      <c r="C29" s="15"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
+      <c r="E29" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
+      <c r="G29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="I29" s="13" t="s">
+        <v>16</v>
+      </c>
       <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
+      <c r="K29" s="28" t="s">
+        <v>64</v>
+      </c>
       <c r="L29" s="1"/>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="C30" s="27"/>
+      <c r="C30" s="15"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
+      <c r="H30" s="23"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
@@ -8150,16 +7008,30 @@
     <row r="31" spans="1:12">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
-      <c r="C31" s="27"/>
+      <c r="C31" s="15"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
+      <c r="H31" s="23"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
